--- a/data/rawfludata.xlsx
+++ b/data/rawfludata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Callum\Documents\Masters\PSY6422\finalproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC7065-0585-4DE1-B3A4-7D769471910B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07FF31-16E0-4EB6-8751-C025B0A1A1EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7277" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7343" uniqueCount="1505">
   <si>
     <t>Influenza Laboratory Surveillance Information</t>
   </si>
@@ -14776,6 +14776,96 @@
         <rFont val="Arial"/>
       </rPr>
       <t>5789</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2021-04-19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2021-04-25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>11458</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2021-04-26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2021-05-02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5968</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2021-05-03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2021-05-09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3596</t>
     </r>
   </si>
 </sst>
@@ -14956,7 +15046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -15028,6 +15118,30 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15512,10 +15626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V335"/>
+  <dimension ref="A1:V338"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A329" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y333" sqref="Y333"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A335" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U343" sqref="U343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15534,67 +15648,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="P2" s="37" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="P2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="1:22" ht="0" hidden="1" customHeight="1"/>
     <row r="5" spans="1:22">
@@ -15619,24 +15733,24 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="42" t="s">
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="39"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="47"/>
       <c r="T5" s="5" t="s">
         <v>4</v>
       </c>
@@ -37816,274 +37930,478 @@
       </c>
     </row>
     <row r="332" spans="1:22" ht="60">
-      <c r="A332" s="47" t="s">
+      <c r="A332" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B332" s="48" t="s">
+      <c r="B332" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C332" s="48" t="s">
+      <c r="C332" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D332" s="48" t="s">
+      <c r="D332" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="E332" s="48" t="s">
+      <c r="E332" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F332" s="48" t="s">
+      <c r="F332" s="38" t="s">
         <v>1484</v>
       </c>
-      <c r="G332" s="48" t="s">
+      <c r="G332" s="38" t="s">
         <v>1485</v>
       </c>
-      <c r="H332" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I332" s="50" t="s">
+      <c r="H332" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I332" s="40" t="s">
         <v>1488</v>
       </c>
-      <c r="J332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="L332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M332" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="N332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="O332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="P332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q332" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="R332" s="50" t="s">
+      <c r="J332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M332" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q332" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="R332" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="S332" s="50" t="s">
+      <c r="S332" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="T332" s="50" t="s">
+      <c r="T332" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="U332" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="V332" s="47" t="s">
+      <c r="U332" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="V332" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="60">
-      <c r="A333" s="43" t="s">
+      <c r="A333" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B333" s="44" t="s">
+      <c r="B333" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C333" s="44" t="s">
+      <c r="C333" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D333" s="44" t="s">
+      <c r="D333" s="34" t="s">
         <v>1450</v>
       </c>
-      <c r="E333" s="44" t="s">
+      <c r="E333" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F333" s="44" t="s">
+      <c r="F333" s="34" t="s">
         <v>1486</v>
       </c>
-      <c r="G333" s="44" t="s">
+      <c r="G333" s="34" t="s">
         <v>1487</v>
       </c>
-      <c r="H333" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="I333" s="46" t="s">
+      <c r="H333" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I333" s="36" t="s">
         <v>1489</v>
       </c>
-      <c r="J333" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K333" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L333" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M333" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="N333" s="46" t="s">
+      <c r="J333" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K333" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L333" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M333" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N333" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O333" s="46" t="s">
+      <c r="O333" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="P333" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q333" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="R333" s="46" t="s">
+      <c r="P333" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q333" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R333" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="S333" s="46" t="s">
+      <c r="S333" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="T333" s="46" t="s">
+      <c r="T333" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="U333" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="V333" s="43" t="s">
+      <c r="U333" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="V333" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="60">
-      <c r="A334" s="47" t="s">
+      <c r="A334" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B334" s="48" t="s">
+      <c r="B334" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C334" s="48" t="s">
+      <c r="C334" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D334" s="48" t="s">
+      <c r="D334" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="E334" s="48" t="s">
+      <c r="E334" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F334" s="48" t="s">
+      <c r="F334" s="38" t="s">
         <v>1490</v>
       </c>
-      <c r="G334" s="48" t="s">
+      <c r="G334" s="38" t="s">
         <v>1491</v>
       </c>
-      <c r="H334" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I334" s="50" t="s">
+      <c r="H334" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I334" s="40" t="s">
         <v>1492</v>
       </c>
-      <c r="J334" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K334" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="L334" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M334" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="N334" s="50" t="s">
+      <c r="J334" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K334" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L334" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M334" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N334" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="O334" s="50" t="s">
+      <c r="O334" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P334" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q334" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="R334" s="50" t="s">
+      <c r="P334" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q334" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="R334" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="S334" s="50" t="s">
+      <c r="S334" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="T334" s="50" t="s">
+      <c r="T334" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="U334" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="V334" s="47" t="s">
+      <c r="U334" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="V334" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="60">
-      <c r="A335" s="43" t="s">
+      <c r="A335" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B335" s="44" t="s">
+      <c r="B335" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C335" s="44" t="s">
+      <c r="C335" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D335" s="44" t="s">
+      <c r="D335" s="34" t="s">
         <v>1450</v>
       </c>
-      <c r="E335" s="44" t="s">
+      <c r="E335" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F335" s="44" t="s">
+      <c r="F335" s="34" t="s">
         <v>1493</v>
       </c>
-      <c r="G335" s="44" t="s">
+      <c r="G335" s="34" t="s">
         <v>1494</v>
       </c>
-      <c r="H335" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="I335" s="46" t="s">
+      <c r="H335" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I335" s="36" t="s">
         <v>1495</v>
       </c>
-      <c r="J335" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K335" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L335" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M335" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="N335" s="46" t="s">
+      <c r="J335" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K335" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L335" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M335" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N335" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="O335" s="46" t="s">
+      <c r="O335" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="P335" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q335" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="R335" s="46" t="s">
+      <c r="P335" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q335" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R335" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="S335" s="46" t="s">
+      <c r="S335" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T335" s="46" t="s">
+      <c r="T335" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="U335" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="V335" s="43" t="s">
+      <c r="U335" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="V335" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" ht="60">
+      <c r="A336" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B336" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D336" s="56" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E336" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F336" s="56" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G336" s="56" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H336" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I336" s="58" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J336" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K336" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L336" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M336" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="N336" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="O336" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="P336" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q336" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="R336" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="S336" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="T336" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="U336" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="V336" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" ht="60">
+      <c r="A337" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B337" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337" s="52" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E337" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F337" s="52" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G337" s="52" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H337" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I337" s="54" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J337" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="K337" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L337" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="M337" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="N337" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O337" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P337" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q337" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="R337" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="S337" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="T337" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="U337" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="V337" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" ht="60">
+      <c r="A338" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B338" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D338" s="56" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E338" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F338" s="56" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G338" s="56" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H338" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I338" s="58" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J338" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K338" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L338" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="M338" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="N338" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="O338" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="P338" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q338" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="R338" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="S338" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="T338" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="U338" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="V338" s="55" t="s">
         <v>45</v>
       </c>
     </row>
